--- a/Assets/FastEngine/Scripts/Core/Excel2Table/Template/Template.xlsx
+++ b/Assets/FastEngine/Scripts/Core/Excel2Table/Template/Template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>1,2,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,36 @@
   </si>
   <si>
     <t>Comment(名称无所谓)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i18n</t>
+  </si>
+  <si>
+    <t>language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言model:多语言key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>languages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrayi18n</t>
+  </si>
+  <si>
+    <t>多语言model:多语言key,多语言model:多语言key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,6 +299,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -671,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -685,21 +716,23 @@
     <col min="7" max="7" width="19.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.75" style="1" customWidth="1"/>
-    <col min="19" max="19" width="17.125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.75" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="1"/>
+    <col min="10" max="11" width="23" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.75" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="57.875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="23.75" style="1" customWidth="1"/>
+    <col min="23" max="23" width="49" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -731,37 +764,43 @@
         <v>12</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -793,37 +832,43 @@
         <v>26</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="3" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -855,37 +900,43 @@
         <v>33</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -917,33 +968,39 @@
         <v>50</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -951,7 +1008,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:XFD3">
-      <formula1>"Byte,Int,Long,Float,Double,String,Boolean,Vector2,Vector3,ArrayByte,ArrayInt,ArrayLong,ArrayFloat,ArrayDouble,ArrayString,ArrayBoolean,ArrayVector2,ArrayVector3,Ignore"</formula1>
+      <formula1>"Byte,Int,Long,Float,Double,String,Boolean,Vector2,Vector3,i18n,ArrayByte,ArrayInt,ArrayLong,ArrayFloat,ArrayDouble,ArrayString,ArrayBoolean,ArrayVector2,ArrayVector3,Arrayi18n,Ignore"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
